--- a/features/Book2.xlsx
+++ b/features/Book2.xlsx
@@ -336,26 +336,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1">
-        <v>1</v>
-      </c>
-      <c r="B1">
-        <v>2</v>
-      </c>
-      <c r="C1">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>